--- a/Dane/Zadanie/dane.xlsx
+++ b/Dane/Zadanie/dane.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studmsugedupl-my.sharepoint.com/personal/pawel_smolinski_phdstud_ug_edu_pl/Documents/WSB/Psychometria/Psychometria/Dane/Zadanie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F3657F-8AFE-4733-8DA7-2BC4A83D9F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{08F3657F-8AFE-4733-8DA7-2BC4A83D9F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF52EF33-00D3-4CD2-A0C2-6C4E1634EDF6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liczba odpowiedzi 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,9 +51,6 @@
   </si>
   <si>
     <t>3. Zdrowe odżywianie się jest dla mnie ważne.</t>
-  </si>
-  <si>
-    <t>4. Moje słabości motywują mnie do działania.</t>
   </si>
   <si>
     <t xml:space="preserve">5. Wyobrażam sobie etapy działania, prowadzące mnie do osiągnięcia sukcesu. </t>
@@ -120,6 +130,9 @@
   <si>
     <t xml:space="preserve">Helikopter bojowy </t>
   </si>
+  <si>
+    <t>4. Moje słabości nie motywują mnie do działania.</t>
+  </si>
 </sst>
 </file>
 
@@ -181,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,8 +404,8 @@
   <dimension ref="A1:AD260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -418,76 +435,76 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -495,7 +512,7 @@
         <v>44912.659677187505</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>23</v>
@@ -587,7 +604,7 @@
         <v>44912.680981736106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>51</v>
@@ -602,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <v>5</v>
@@ -679,7 +696,7 @@
         <v>44912.724672615739</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>51</v>
@@ -771,7 +788,7 @@
         <v>44912.759912280089</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>45</v>
@@ -786,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -863,7 +880,7 @@
         <v>44912.76452261574</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>49</v>
@@ -955,7 +972,7 @@
         <v>44912.77416479167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>33</v>
@@ -970,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -1047,7 +1064,7 @@
         <v>44912.778109791667</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>32</v>
@@ -1139,7 +1156,7 @@
         <v>44912.78203263889</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>49</v>
@@ -1154,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
@@ -1231,7 +1248,7 @@
         <v>44912.786782152776</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>37</v>
@@ -1246,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
@@ -1323,7 +1340,7 @@
         <v>44912.789907800921</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>22</v>
@@ -1338,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>5</v>
@@ -1415,7 +1432,7 @@
         <v>44912.830322708338</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>63</v>
@@ -1430,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
@@ -1507,7 +1524,7 @@
         <v>44912.94245599537</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>37</v>
@@ -1599,18 +1616,19 @@
         <v>44912.973683576391</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
         <v>23</v>
       </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44912.979154039349</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>23</v>
@@ -1625,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
         <v>4</v>
@@ -1702,7 +1720,7 @@
         <v>44913.308199675928</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>19</v>
@@ -1717,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
@@ -1794,7 +1812,7 @@
         <v>44913.326954027776</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>21</v>
@@ -1809,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
         <v>4</v>
@@ -1886,7 +1904,7 @@
         <v>44913.521183946759</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>19</v>
@@ -1901,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -1978,7 +1996,7 @@
         <v>44913.521402245373</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>19</v>
@@ -1993,7 +2011,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>4</v>
@@ -2070,7 +2088,7 @@
         <v>44913.524672256943</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -2085,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
         <v>5</v>
@@ -2162,7 +2180,7 @@
         <v>44913.524855405092</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -2254,7 +2272,7 @@
         <v>44913.527058703708</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>19</v>
@@ -2346,7 +2364,7 @@
         <v>44913.527992326388</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>19</v>
@@ -2361,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
         <v>4</v>
@@ -2438,40 +2456,43 @@
         <v>44913.532297418977</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>20</v>
       </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44913.532430370367</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>19</v>
       </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44913.534461423609</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
         <v>19</v>
       </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44913.534739953699</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>19</v>
@@ -2486,7 +2507,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
@@ -2563,7 +2584,7 @@
         <v>44913.535343333337</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <v>19</v>
@@ -2578,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
         <v>5</v>
@@ -2655,7 +2676,7 @@
         <v>44913.536051736111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <v>20</v>
@@ -2670,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29" s="1">
         <v>4</v>
@@ -2747,7 +2768,7 @@
         <v>44913.536115405092</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>19</v>
@@ -2762,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
         <v>5</v>
@@ -2839,7 +2860,7 @@
         <v>44913.537246203705</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
         <v>20</v>
@@ -2854,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1">
         <v>5</v>
@@ -2931,7 +2952,7 @@
         <v>44913.538670150461</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>19</v>
@@ -3023,7 +3044,7 @@
         <v>44913.53928813657</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1">
         <v>20</v>
@@ -3038,7 +3059,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1">
         <v>5</v>
@@ -3115,7 +3136,7 @@
         <v>44913.539378634261</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1">
         <v>19</v>
@@ -3207,7 +3228,7 @@
         <v>44913.539803391206</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
         <v>19</v>
@@ -3222,7 +3243,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" s="1">
         <v>4</v>
@@ -3299,10 +3320,13 @@
         <v>44913.539991030091</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <v>19</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
@@ -3310,7 +3334,7 @@
         <v>44913.543582673607</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>24</v>
@@ -3325,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -3402,7 +3426,7 @@
         <v>44913.544065208334</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1">
         <v>19</v>
@@ -3417,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1">
         <v>3</v>
@@ -3494,7 +3518,7 @@
         <v>44913.544808946761</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1">
         <v>19</v>
@@ -3586,7 +3610,7 @@
         <v>44913.547386215279</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>19</v>
@@ -3678,7 +3702,7 @@
         <v>44913.549228587959</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1">
         <v>20</v>
@@ -3770,7 +3794,7 @@
         <v>44913.549973854169</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1">
         <v>19</v>
@@ -3862,7 +3886,7 @@
         <v>44913.56036984954</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" s="1">
         <v>19</v>
@@ -3877,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H43" s="1">
         <v>4</v>
@@ -3954,7 +3978,7 @@
         <v>44913.563076550927</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="1">
         <v>18</v>
@@ -3969,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
         <v>3</v>
@@ -4046,7 +4070,7 @@
         <v>44913.565984050925</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1">
         <v>20</v>
@@ -4061,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1">
         <v>5</v>
@@ -4138,7 +4162,7 @@
         <v>44913.569314722219</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1">
         <v>49</v>
@@ -4230,7 +4254,7 @@
         <v>44913.575265868058</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1">
         <v>51</v>
@@ -4245,7 +4269,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47" s="1">
         <v>4</v>
@@ -4322,18 +4346,19 @@
         <v>44913.588456840276</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1">
         <v>19</v>
       </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44913.611706886571</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1">
         <v>19</v>
@@ -4348,7 +4373,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49" s="1">
         <v>3</v>
@@ -4425,7 +4450,7 @@
         <v>44913.70376650463</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="1">
         <v>19</v>
@@ -4440,7 +4465,7 @@
         <v>4</v>
       </c>
       <c r="G50" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H50" s="1">
         <v>5</v>
@@ -4517,7 +4542,7 @@
         <v>44913.708408078703</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1">
         <v>17</v>
@@ -4609,7 +4634,7 @@
         <v>44913.76988359954</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1">
         <v>19</v>
@@ -4624,7 +4649,7 @@
         <v>4</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H52" s="1">
         <v>3</v>
@@ -4701,7 +4726,7 @@
         <v>44913.772647777776</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
         <v>40</v>
@@ -4716,7 +4741,7 @@
         <v>4</v>
       </c>
       <c r="G53" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1">
         <v>4</v>
@@ -4793,7 +4818,7 @@
         <v>44913.829408657402</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
         <v>42</v>
@@ -4808,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="G54" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54" s="1">
         <v>3</v>
@@ -4885,40 +4910,43 @@
         <v>44916.34533423611</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1">
         <v>17</v>
       </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44916.345754247683</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1">
         <v>18</v>
       </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44916.347609166667</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1">
         <v>17</v>
       </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44916.348125706019</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" s="1">
         <v>18</v>
@@ -5010,7 +5038,7 @@
         <v>44916.348256736106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="1">
         <v>18</v>
@@ -5025,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H59" s="1">
         <v>2</v>
@@ -5102,7 +5130,7 @@
         <v>44916.348844236112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" s="1">
         <v>18</v>
@@ -5194,7 +5222,7 @@
         <v>44916.34966018518</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1">
         <v>18</v>
@@ -5209,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61" s="1">
         <v>5</v>
@@ -5286,7 +5314,7 @@
         <v>44916.349888657409</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1">
         <v>18</v>
@@ -5301,7 +5329,7 @@
         <v>3</v>
       </c>
       <c r="G62" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62" s="1">
         <v>3</v>
@@ -5378,7 +5406,7 @@
         <v>44916.350569675924</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" s="1">
         <v>18</v>
@@ -5393,7 +5421,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63" s="1">
         <v>4</v>
@@ -5470,7 +5498,7 @@
         <v>44916.351370081014</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1">
         <v>18</v>
@@ -5485,7 +5513,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H64" s="1">
         <v>4</v>
@@ -5562,18 +5590,19 @@
         <v>44916.354815243059</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="1">
         <v>18</v>
       </c>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44916.355621469906</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1">
         <v>18</v>
@@ -5588,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H66" s="1">
         <v>4</v>
@@ -5665,10 +5694,13 @@
         <v>44916.362158495365</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
         <v>18</v>
+      </c>
+      <c r="G67" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
@@ -5676,7 +5708,7 @@
         <v>44916.369914467592</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" s="1">
         <v>18</v>
@@ -5691,7 +5723,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68" s="1">
         <v>5</v>
@@ -5768,7 +5800,7 @@
         <v>44916.406223067126</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1">
         <v>40</v>
@@ -5860,7 +5892,7 @@
         <v>44916.422586250002</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" s="1">
         <v>18</v>
@@ -5875,7 +5907,7 @@
         <v>4</v>
       </c>
       <c r="G70" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70" s="1">
         <v>5</v>
@@ -5952,18 +5984,19 @@
         <v>44916.52620335648</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" s="1">
         <v>16</v>
       </c>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44916.528433738422</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="1">
         <v>17</v>
@@ -5978,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="G72" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H72" s="1">
         <v>4</v>
@@ -6055,7 +6088,7 @@
         <v>44916.52993261574</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="1">
         <v>17</v>
@@ -6147,7 +6180,7 @@
         <v>44916.529958981482</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" s="1">
         <v>17</v>
@@ -6162,7 +6195,7 @@
         <v>5</v>
       </c>
       <c r="G74" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H74" s="1">
         <v>5</v>
@@ -6239,7 +6272,7 @@
         <v>44916.530863437496</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" s="1">
         <v>16</v>
@@ -6254,7 +6287,7 @@
         <v>2</v>
       </c>
       <c r="G75" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H75" s="1">
         <v>5</v>
@@ -6331,7 +6364,7 @@
         <v>44916.531196782409</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1">
         <v>17</v>
@@ -6346,7 +6379,7 @@
         <v>4</v>
       </c>
       <c r="G76" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" s="1">
         <v>4</v>
@@ -6423,7 +6456,7 @@
         <v>44916.531476030097</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1">
         <v>16</v>
@@ -6515,7 +6548,7 @@
         <v>44916.532933252311</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1">
         <v>17</v>
@@ -6530,7 +6563,7 @@
         <v>5</v>
       </c>
       <c r="G78" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78" s="1">
         <v>5</v>
@@ -6607,7 +6640,7 @@
         <v>44916.53495627315</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1">
         <v>16</v>
@@ -6622,7 +6655,7 @@
         <v>3</v>
       </c>
       <c r="G79" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79" s="1">
         <v>4</v>
@@ -6699,7 +6732,7 @@
         <v>44916.535075752312</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C80" s="1">
         <v>17</v>
@@ -6714,7 +6747,7 @@
         <v>3</v>
       </c>
       <c r="G80" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80" s="1">
         <v>5</v>
@@ -6791,7 +6824,7 @@
         <v>44916.535958611115</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="1">
         <v>16</v>
@@ -6806,7 +6839,7 @@
         <v>4</v>
       </c>
       <c r="G81" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H81" s="1">
         <v>3</v>
@@ -6883,7 +6916,7 @@
         <v>44916.556964965275</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1">
         <v>17</v>
@@ -6898,7 +6931,7 @@
         <v>3</v>
       </c>
       <c r="G82" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H82" s="1">
         <v>3</v>
@@ -6975,128 +7008,139 @@
         <v>44916.563741944439</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="1">
         <v>14</v>
       </c>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44916.563812777778</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="1">
         <v>15</v>
       </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44916.563858657406</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1">
         <v>15</v>
       </c>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44916.564201296293</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1">
         <v>14</v>
       </c>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44916.56452777778</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87" s="1">
         <v>14</v>
       </c>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44916.564641168981</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" s="1">
         <v>15</v>
       </c>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44916.564697916663</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1">
         <v>14</v>
       </c>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44916.564865914348</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1">
         <v>15</v>
       </c>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44916.56494945602</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="1">
         <v>14</v>
       </c>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44916.565455057869</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" s="1">
         <v>15</v>
       </c>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44916.566508912038</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="1">
         <v>14</v>
       </c>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44916.566767569442</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1">
         <v>17</v>
@@ -7188,7 +7232,7 @@
         <v>44916.568094513888</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95" s="1">
         <v>15</v>
@@ -7203,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H95" s="1">
         <v>4</v>
@@ -7280,7 +7324,7 @@
         <v>44916.568768564815</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C96" s="1">
         <v>15</v>
@@ -7295,7 +7339,7 @@
         <v>5</v>
       </c>
       <c r="G96" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H96" s="1">
         <v>3</v>
@@ -7372,7 +7416,7 @@
         <v>44916.568856967591</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" s="1">
         <v>14</v>
@@ -7387,7 +7431,7 @@
         <v>4</v>
       </c>
       <c r="G97" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H97" s="1">
         <v>5</v>
@@ -7464,7 +7508,7 @@
         <v>44916.568959178243</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C98" s="1">
         <v>15</v>
@@ -7479,7 +7523,7 @@
         <v>4</v>
       </c>
       <c r="G98" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H98" s="1">
         <v>5</v>
@@ -7556,7 +7600,7 @@
         <v>44916.570299467596</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99" s="1">
         <v>14</v>
@@ -7648,7 +7692,7 @@
         <v>44916.571287349536</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="1">
         <v>15</v>
@@ -7663,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="G100" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H100" s="1">
         <v>3</v>
@@ -7740,7 +7784,7 @@
         <v>44916.572137511575</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" s="1">
         <v>14</v>
@@ -7755,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H101" s="1">
         <v>2</v>
@@ -7832,7 +7876,7 @@
         <v>44916.57325105324</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" s="1">
         <v>15</v>
@@ -7847,7 +7891,7 @@
         <v>3</v>
       </c>
       <c r="G102" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H102" s="1">
         <v>4</v>
@@ -7924,7 +7968,7 @@
         <v>44916.575289918983</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C103" s="1">
         <v>14</v>
@@ -7939,7 +7983,7 @@
         <v>4</v>
       </c>
       <c r="G103" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H103" s="1">
         <v>5</v>
@@ -8016,7 +8060,7 @@
         <v>44916.575312604167</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C104" s="1">
         <v>40</v>
@@ -8108,7 +8152,7 @@
         <v>44916.577632569446</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C105" s="1">
         <v>14</v>
@@ -8123,7 +8167,7 @@
         <v>4</v>
       </c>
       <c r="G105" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H105" s="1">
         <v>1</v>
@@ -8200,7 +8244,7 @@
         <v>44916.579171944446</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" s="1">
         <v>17</v>
@@ -8215,7 +8259,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H106" s="1">
         <v>5</v>
@@ -8292,7 +8336,7 @@
         <v>44916.579514074074</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C107" s="1">
         <v>15</v>
@@ -8307,7 +8351,7 @@
         <v>5</v>
       </c>
       <c r="G107" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H107" s="1">
         <v>5</v>
@@ -8384,10 +8428,13 @@
         <v>44916.598751331017</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C108" s="1">
         <v>15</v>
+      </c>
+      <c r="G108" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
@@ -8395,7 +8442,7 @@
         <v>44916.59918719907</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" s="1">
         <v>14</v>
@@ -8410,7 +8457,7 @@
         <v>4</v>
       </c>
       <c r="G109" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H109" s="1">
         <v>1</v>
@@ -8487,7 +8534,7 @@
         <v>44917.366524907411</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C110" s="1">
         <v>19</v>
@@ -8502,7 +8549,7 @@
         <v>5</v>
       </c>
       <c r="G110" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H110" s="1">
         <v>5</v>
@@ -8579,18 +8626,19 @@
         <v>44917.370426967595</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C111" s="1">
         <v>19</v>
       </c>
+      <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>44917.603245312501</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C112" s="1">
         <v>38</v>
@@ -8605,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="G112" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H112" s="1">
         <v>4</v>
@@ -8682,7 +8730,7 @@
         <v>44919.934779131945</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C113" s="1">
         <v>48</v>
@@ -8697,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="G113" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H113" s="1">
         <v>4</v>
@@ -8774,7 +8822,7 @@
         <v>44920.607521701386</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C114" s="1">
         <v>22</v>
@@ -8866,7 +8914,7 @@
         <v>44921.680576655097</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C115" s="1">
         <v>71</v>
@@ -8958,7 +9006,7 @@
         <v>44921.687419861111</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C116" s="1">
         <v>50</v>
@@ -9050,7 +9098,7 @@
         <v>44934.956843842592</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" s="1">
         <v>71</v>
@@ -9065,7 +9113,7 @@
         <v>4</v>
       </c>
       <c r="G117" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H117" s="1">
         <v>4</v>
@@ -9142,7 +9190,7 @@
         <v>44937.602699687501</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" s="1">
         <v>34</v>
@@ -9157,7 +9205,7 @@
         <v>5</v>
       </c>
       <c r="G118" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H118" s="1">
         <v>5</v>
@@ -9234,7 +9282,7 @@
         <v>44937.605939189816</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C119" s="1">
         <v>65</v>
@@ -9249,7 +9297,7 @@
         <v>4</v>
       </c>
       <c r="G119" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H119" s="1">
         <v>3</v>
@@ -9326,7 +9374,7 @@
         <v>44937.60992293981</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120" s="1">
         <v>25</v>
@@ -9341,7 +9389,7 @@
         <v>4</v>
       </c>
       <c r="G120" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H120" s="1">
         <v>4</v>
@@ -9418,7 +9466,7 @@
         <v>44937.633094340279</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121" s="1">
         <v>77</v>
@@ -9433,7 +9481,7 @@
         <v>3</v>
       </c>
       <c r="G121" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H121" s="1">
         <v>4</v>
@@ -9510,7 +9558,7 @@
         <v>44937.637140833336</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C122" s="1">
         <v>89</v>
@@ -9525,7 +9573,7 @@
         <v>4</v>
       </c>
       <c r="G122" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H122" s="1">
         <v>3</v>
@@ -9602,7 +9650,7 @@
         <v>44937.641514247684</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C123" s="1">
         <v>27</v>
@@ -9617,7 +9665,7 @@
         <v>5</v>
       </c>
       <c r="G123" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H123" s="1">
         <v>4</v>
@@ -9694,7 +9742,7 @@
         <v>44937.645609328705</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C124" s="1">
         <v>24</v>
@@ -9786,7 +9834,7 @@
         <v>44938.549659363431</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C125" s="1">
         <v>23</v>
@@ -9801,7 +9849,7 @@
         <v>5</v>
       </c>
       <c r="G125" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H125" s="1">
         <v>4</v>
@@ -9878,7 +9926,7 @@
         <v>44938.554794606476</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C126" s="1">
         <v>23</v>
@@ -9970,7 +10018,7 @@
         <v>44938.584548379629</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C127" s="1">
         <v>22</v>
@@ -9985,7 +10033,7 @@
         <v>3</v>
       </c>
       <c r="G127" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H127" s="1">
         <v>4</v>
@@ -10062,7 +10110,7 @@
         <v>44938.584955625003</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C128" s="1">
         <v>23</v>
@@ -10077,7 +10125,7 @@
         <v>2</v>
       </c>
       <c r="G128" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H128" s="1">
         <v>4</v>
@@ -10154,40 +10202,43 @@
         <v>44938.592263090279</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C129" s="1">
         <v>24</v>
       </c>
+      <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>44938.592880405093</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C130" s="1">
         <v>28</v>
       </c>
+      <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>44938.59771800926</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131" s="1">
         <v>23</v>
       </c>
+      <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>44938.633118726852</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C132" s="1">
         <v>23</v>
@@ -10202,7 +10253,7 @@
         <v>4</v>
       </c>
       <c r="G132" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H132" s="1">
         <v>3</v>
@@ -10279,7 +10330,7 @@
         <v>44938.64203456018</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" s="1">
         <v>22</v>
@@ -10294,7 +10345,7 @@
         <v>4</v>
       </c>
       <c r="G133" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H133" s="1">
         <v>3</v>
@@ -10371,7 +10422,7 @@
         <v>44938.646891655095</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C134" s="1">
         <v>23</v>
@@ -10463,7 +10514,7 @@
         <v>44938.646917824073</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C135" s="1">
         <v>24</v>
@@ -10478,7 +10529,7 @@
         <v>5</v>
       </c>
       <c r="G135" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H135" s="1">
         <v>5</v>
@@ -10555,7 +10606,7 @@
         <v>44938.648925879628</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136" s="1">
         <v>23</v>
@@ -10570,7 +10621,7 @@
         <v>3</v>
       </c>
       <c r="G136" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H136" s="1">
         <v>4</v>
@@ -10647,7 +10698,7 @@
         <v>44938.65768138889</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C137" s="1">
         <v>24</v>
@@ -10662,7 +10713,7 @@
         <v>5</v>
       </c>
       <c r="G137" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H137" s="1">
         <v>4</v>
@@ -10739,7 +10790,7 @@
         <v>44938.676892615738</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C138" s="1">
         <v>23</v>
@@ -10754,7 +10805,7 @@
         <v>4</v>
       </c>
       <c r="G138" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H138" s="1">
         <v>4</v>
@@ -10831,7 +10882,7 @@
         <v>44938.678010451389</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C139" s="1">
         <v>68</v>
@@ -10846,7 +10897,7 @@
         <v>3</v>
       </c>
       <c r="G139" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H139" s="1">
         <v>4</v>
@@ -10923,7 +10974,7 @@
         <v>44938.7125519213</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C140" s="1">
         <v>23</v>
@@ -10938,7 +10989,7 @@
         <v>4</v>
       </c>
       <c r="G140" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H140" s="1">
         <v>4</v>
@@ -11015,7 +11066,7 @@
         <v>44938.730205</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141" s="1">
         <v>41</v>
@@ -11030,7 +11081,7 @@
         <v>4</v>
       </c>
       <c r="G141" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H141" s="1">
         <v>4</v>
@@ -11107,7 +11158,7 @@
         <v>44938.745228865737</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C142" s="1">
         <v>23</v>
@@ -11122,7 +11173,7 @@
         <v>3</v>
       </c>
       <c r="G142" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H142" s="1">
         <v>2</v>
@@ -11199,7 +11250,7 @@
         <v>44938.816654594906</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C143" s="1">
         <v>57</v>
@@ -11214,7 +11265,7 @@
         <v>3</v>
       </c>
       <c r="G143" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H143" s="1">
         <v>5</v>
@@ -11291,7 +11342,7 @@
         <v>44938.821624745367</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C144" s="1">
         <v>34</v>
@@ -11306,7 +11357,7 @@
         <v>5</v>
       </c>
       <c r="G144" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H144" s="1">
         <v>5</v>
@@ -11383,7 +11434,7 @@
         <v>44938.88976366898</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C145" s="1">
         <v>88</v>
@@ -11398,7 +11449,7 @@
         <v>4</v>
       </c>
       <c r="G145" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H145" s="1">
         <v>4</v>
@@ -11475,7 +11526,7 @@
         <v>44938.945397326388</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C146" s="1">
         <v>72</v>
@@ -11490,7 +11541,7 @@
         <v>3</v>
       </c>
       <c r="G146" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H146" s="1">
         <v>4</v>
@@ -11567,7 +11618,7 @@
         <v>44938.949236238426</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C147" s="1">
         <v>69</v>
@@ -11582,7 +11633,7 @@
         <v>2</v>
       </c>
       <c r="G147" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H147" s="1">
         <v>4</v>
@@ -11659,7 +11710,7 @@
         <v>44938.952508634262</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148" s="1">
         <v>80</v>
@@ -11751,7 +11802,7 @@
         <v>44938.956629988425</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C149" s="1">
         <v>26</v>
@@ -11766,7 +11817,7 @@
         <v>5</v>
       </c>
       <c r="G149" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H149" s="1">
         <v>5</v>
@@ -11843,7 +11894,7 @@
         <v>44938.963404502312</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" s="1">
         <v>28</v>
@@ -11858,7 +11909,7 @@
         <v>5</v>
       </c>
       <c r="G150" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H150" s="1">
         <v>5</v>
@@ -11935,7 +11986,7 @@
         <v>44938.972741574078</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C151" s="1">
         <v>45</v>
@@ -11950,7 +12001,7 @@
         <v>5</v>
       </c>
       <c r="G151" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H151" s="1">
         <v>4</v>
@@ -12027,7 +12078,7 @@
         <v>44939.026002210652</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C152" s="1">
         <v>23</v>
@@ -12042,7 +12093,7 @@
         <v>4</v>
       </c>
       <c r="G152" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H152" s="1">
         <v>5</v>
@@ -12119,18 +12170,19 @@
         <v>44939.638361666672</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C153" s="1">
         <v>20</v>
       </c>
+      <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>44939.91570784722</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C154" s="1">
         <v>40</v>
@@ -12145,7 +12197,7 @@
         <v>3</v>
       </c>
       <c r="G154" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H154" s="1">
         <v>3</v>
@@ -12222,7 +12274,7 @@
         <v>44939.950487604168</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C155" s="1">
         <v>24</v>
@@ -12314,7 +12366,7 @@
         <v>44942.395461481487</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C156" s="1">
         <v>23</v>
@@ -12329,7 +12381,7 @@
         <v>4</v>
       </c>
       <c r="G156" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H156" s="1">
         <v>4</v>
@@ -12406,7 +12458,7 @@
         <v>44944.465900532407</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C157" s="1">
         <v>70</v>
@@ -12421,7 +12473,7 @@
         <v>4</v>
       </c>
       <c r="G157" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H157" s="1">
         <v>3</v>
@@ -12498,7 +12550,7 @@
         <v>44944.468628148148</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C158" s="1">
         <v>75</v>
@@ -12590,7 +12642,7 @@
         <v>44944.471022731479</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C159" s="1">
         <v>71</v>
@@ -12605,7 +12657,7 @@
         <v>4</v>
       </c>
       <c r="G159" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H159" s="1">
         <v>2</v>
@@ -12682,7 +12734,7 @@
         <v>44944.474127199079</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C160" s="1">
         <v>71</v>
@@ -12697,7 +12749,7 @@
         <v>4</v>
       </c>
       <c r="G160" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H160" s="1">
         <v>3</v>
@@ -12774,7 +12826,7 @@
         <v>44944.477284374996</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C161" s="1">
         <v>67</v>
@@ -12789,7 +12841,7 @@
         <v>5</v>
       </c>
       <c r="G161" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H161" s="1">
         <v>3</v>
@@ -12866,7 +12918,7 @@
         <v>44944.480124178241</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C162" s="1">
         <v>58</v>
@@ -12881,7 +12933,7 @@
         <v>5</v>
       </c>
       <c r="G162" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H162" s="1">
         <v>4</v>
@@ -12958,7 +13010,7 @@
         <v>44944.515331782408</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C163" s="1">
         <v>60</v>
@@ -13050,7 +13102,7 @@
         <v>44944.552429386575</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C164" s="1">
         <v>86</v>
@@ -13065,7 +13117,7 @@
         <v>3</v>
       </c>
       <c r="G164" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H164" s="1">
         <v>2</v>
@@ -13142,7 +13194,7 @@
         <v>44946.574752106477</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C165" s="1">
         <v>29</v>
@@ -13234,7 +13286,7 @@
         <v>44948.979191574079</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C166" s="1">
         <v>33</v>
@@ -13249,7 +13301,7 @@
         <v>3</v>
       </c>
       <c r="G166" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H166" s="1">
         <v>2</v>
@@ -13326,7 +13378,7 @@
         <v>44948.98653008102</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C167" s="1">
         <v>26</v>
@@ -13418,7 +13470,7 @@
         <v>44948.990651504631</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C168" s="1">
         <v>35</v>
@@ -13433,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="G168" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H168" s="1">
         <v>5</v>
@@ -13510,7 +13562,7 @@
         <v>44948.993604178242</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C169" s="1">
         <v>28</v>
@@ -13525,7 +13577,7 @@
         <v>5</v>
       </c>
       <c r="G169" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H169" s="1">
         <v>4</v>
@@ -13602,7 +13654,7 @@
         <v>44948.997215543983</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C170" s="1">
         <v>30</v>
@@ -13617,7 +13669,7 @@
         <v>3</v>
       </c>
       <c r="G170" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H170" s="1">
         <v>4</v>
@@ -13694,7 +13746,7 @@
         <v>44949.00943943287</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C171" s="1">
         <v>40</v>
@@ -13786,7 +13838,7 @@
         <v>44949.013012858792</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C172" s="1">
         <v>25</v>
@@ -13801,7 +13853,7 @@
         <v>3</v>
       </c>
       <c r="G172" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H172" s="1">
         <v>5</v>
@@ -13878,7 +13930,7 @@
         <v>44949.016885381949</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C173" s="1">
         <v>41</v>
@@ -13893,7 +13945,7 @@
         <v>3</v>
       </c>
       <c r="G173" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H173" s="1">
         <v>2</v>
@@ -13970,7 +14022,7 @@
         <v>44949.019582962967</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C174" s="1">
         <v>37</v>
@@ -13985,7 +14037,7 @@
         <v>4</v>
       </c>
       <c r="G174" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H174" s="1">
         <v>4</v>
@@ -14062,7 +14114,7 @@
         <v>44949.022389895836</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C175" s="1">
         <v>33</v>
@@ -14077,7 +14129,7 @@
         <v>4</v>
       </c>
       <c r="G175" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H175" s="1">
         <v>4</v>
@@ -14154,7 +14206,7 @@
         <v>44949.027426284723</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C176" s="1">
         <v>44</v>
@@ -14169,7 +14221,7 @@
         <v>3</v>
       </c>
       <c r="G176" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H176" s="1">
         <v>3</v>
@@ -14246,7 +14298,7 @@
         <v>44949.03001052083</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C177" s="1">
         <v>50</v>
@@ -14261,7 +14313,7 @@
         <v>2</v>
       </c>
       <c r="G177" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H177" s="1">
         <v>3</v>
@@ -14338,7 +14390,7 @@
         <v>44949.033389247685</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C178" s="1">
         <v>54</v>
@@ -14430,7 +14482,7 @@
         <v>44949.036379212965</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C179" s="1">
         <v>55</v>
@@ -14445,7 +14497,7 @@
         <v>4</v>
       </c>
       <c r="G179" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H179" s="1">
         <v>5</v>
@@ -14522,7 +14574,7 @@
         <v>44949.042336365739</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C180" s="1">
         <v>57</v>
@@ -14537,7 +14589,7 @@
         <v>2</v>
       </c>
       <c r="G180" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H180" s="1">
         <v>2</v>
@@ -14614,7 +14666,7 @@
         <v>44949.044918020838</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C181" s="1">
         <v>48</v>
@@ -14629,7 +14681,7 @@
         <v>5</v>
       </c>
       <c r="G181" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H181" s="1">
         <v>5</v>
@@ -14706,7 +14758,7 @@
         <v>44949.047999050927</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C182" s="1">
         <v>52</v>
@@ -14798,7 +14850,7 @@
         <v>44949.050209236113</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C183" s="1">
         <v>45</v>
@@ -14813,7 +14865,7 @@
         <v>5</v>
       </c>
       <c r="G183" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H183" s="1">
         <v>5</v>
@@ -14890,7 +14942,7 @@
         <v>44949.080597662032</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C184" s="1">
         <v>57</v>
@@ -14982,7 +15034,7 @@
         <v>44949.082998958329</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C185" s="1">
         <v>48</v>
@@ -14997,7 +15049,7 @@
         <v>3</v>
       </c>
       <c r="G185" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H185" s="1">
         <v>3</v>
@@ -15074,7 +15126,7 @@
         <v>44949.087532500002</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C186" s="1">
         <v>50</v>
@@ -15166,7 +15218,7 @@
         <v>44949.938020324073</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C187" s="1">
         <v>53</v>
@@ -15258,7 +15310,7 @@
         <v>44949.941088842592</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C188" s="1">
         <v>55</v>
@@ -15273,7 +15325,7 @@
         <v>3</v>
       </c>
       <c r="G188" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H188" s="1">
         <v>2</v>
@@ -15350,7 +15402,7 @@
         <v>44949.943854375</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C189" s="1">
         <v>46</v>
@@ -15365,7 +15417,7 @@
         <v>5</v>
       </c>
       <c r="G189" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H189" s="1">
         <v>5</v>
@@ -15442,7 +15494,7 @@
         <v>44949.946587384256</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C190" s="1">
         <v>47</v>
@@ -15457,7 +15509,7 @@
         <v>4</v>
       </c>
       <c r="G190" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H190" s="1">
         <v>2</v>
@@ -15534,7 +15586,7 @@
         <v>44949.948598043979</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C191" s="1">
         <v>44</v>
@@ -15626,7 +15678,7 @@
         <v>44949.951313958329</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C192" s="1">
         <v>50</v>
@@ -15641,7 +15693,7 @@
         <v>4</v>
       </c>
       <c r="G192" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H192" s="1">
         <v>3</v>
@@ -15718,7 +15770,7 @@
         <v>44949.953566886572</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C193" s="1">
         <v>53</v>
@@ -15733,7 +15785,7 @@
         <v>3</v>
       </c>
       <c r="G193" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H193" s="1">
         <v>4</v>
@@ -15810,7 +15862,7 @@
         <v>44949.959632638886</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C194" s="1">
         <v>57</v>
@@ -15825,7 +15877,7 @@
         <v>3</v>
       </c>
       <c r="G194" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H194" s="1">
         <v>3</v>
@@ -15902,7 +15954,7 @@
         <v>44949.96178662037</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C195" s="1">
         <v>48</v>
@@ -15917,7 +15969,7 @@
         <v>2</v>
       </c>
       <c r="G195" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H195" s="1">
         <v>5</v>
@@ -15994,7 +16046,7 @@
         <v>44949.96349292824</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C196" s="1">
         <v>51</v>
@@ -16009,7 +16061,7 @@
         <v>5</v>
       </c>
       <c r="G196" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H196" s="1">
         <v>5</v>
@@ -16086,7 +16138,7 @@
         <v>44949.965150231481</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C197" s="1">
         <v>52</v>
@@ -16178,7 +16230,7 @@
         <v>44949.968582106478</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C198" s="1">
         <v>46</v>
@@ -16193,7 +16245,7 @@
         <v>4</v>
       </c>
       <c r="G198" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H198" s="1">
         <v>3</v>
@@ -16270,7 +16322,7 @@
         <v>44949.970264166666</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C199" s="1">
         <v>58</v>
@@ -16362,7 +16414,7 @@
         <v>44949.972458668984</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C200" s="1">
         <v>48</v>
@@ -16454,7 +16506,7 @@
         <v>44949.975901064812</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C201" s="1">
         <v>44</v>
@@ -16546,7 +16598,7 @@
         <v>44949.980017303242</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C202" s="1">
         <v>53</v>
@@ -16561,7 +16613,7 @@
         <v>4</v>
       </c>
       <c r="G202" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H202" s="1">
         <v>4</v>
@@ -16638,7 +16690,7 @@
         <v>44949.981938240744</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C203" s="1">
         <v>49</v>
@@ -16730,7 +16782,7 @@
         <v>44949.984922314819</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C204" s="1">
         <v>57</v>
@@ -16745,7 +16797,7 @@
         <v>4</v>
       </c>
       <c r="G204" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H204" s="1">
         <v>2</v>
@@ -16822,7 +16874,7 @@
         <v>44949.987263530093</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C205" s="1">
         <v>58</v>
@@ -16914,7 +16966,7 @@
         <v>44949.988870428242</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C206" s="1">
         <v>56</v>
@@ -16929,7 +16981,7 @@
         <v>4</v>
       </c>
       <c r="G206" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H206" s="1">
         <v>3</v>
@@ -17006,7 +17058,7 @@
         <v>44949.990486273149</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C207" s="1">
         <v>55</v>
@@ -17098,7 +17150,7 @@
         <v>44949.992579594909</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C208" s="1">
         <v>57</v>
@@ -17190,7 +17242,7 @@
         <v>44949.994852986114</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C209" s="1">
         <v>49</v>
@@ -17205,7 +17257,7 @@
         <v>5</v>
       </c>
       <c r="G209" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H209" s="1">
         <v>5</v>
@@ -17282,7 +17334,7 @@
         <v>44949.99738291667</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C210" s="1">
         <v>55</v>
@@ -17297,7 +17349,7 @@
         <v>4</v>
       </c>
       <c r="G210" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H210" s="1">
         <v>4</v>
@@ -17374,7 +17426,7 @@
         <v>44949.999875324072</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C211" s="1">
         <v>54</v>
@@ -17389,7 +17441,7 @@
         <v>3</v>
       </c>
       <c r="G211" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H211" s="1">
         <v>3</v>
@@ -17466,7 +17518,7 @@
         <v>44950.004331678239</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C212" s="1">
         <v>56</v>
@@ -17481,7 +17533,7 @@
         <v>4</v>
       </c>
       <c r="G212" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H212" s="1">
         <v>3</v>
@@ -17558,7 +17610,7 @@
         <v>44950.008277303241</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C213" s="1">
         <v>58</v>
@@ -17573,7 +17625,7 @@
         <v>4</v>
       </c>
       <c r="G213" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H213" s="1">
         <v>3</v>
@@ -17650,7 +17702,7 @@
         <v>44950.013074675924</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C214" s="1">
         <v>60</v>
@@ -17665,7 +17717,7 @@
         <v>5</v>
       </c>
       <c r="G214" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H214" s="1">
         <v>3</v>
@@ -17742,7 +17794,7 @@
         <v>44950.014710000003</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C215" s="1">
         <v>70</v>
@@ -17757,7 +17809,7 @@
         <v>4</v>
       </c>
       <c r="G215" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H215" s="1">
         <v>4</v>
@@ -17834,7 +17886,7 @@
         <v>44950.017616597223</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C216" s="1">
         <v>77</v>
@@ -17849,7 +17901,7 @@
         <v>5</v>
       </c>
       <c r="G216" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H216" s="1">
         <v>5</v>
@@ -17926,7 +17978,7 @@
         <v>44950.022201064814</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C217" s="1">
         <v>69</v>
@@ -17941,7 +17993,7 @@
         <v>5</v>
       </c>
       <c r="G217" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H217" s="1">
         <v>5</v>
@@ -18018,7 +18070,7 @@
         <v>44950.024019490738</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C218" s="1">
         <v>67</v>
@@ -18110,7 +18162,7 @@
         <v>44950.026061365745</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C219" s="1">
         <v>73</v>
@@ -18125,7 +18177,7 @@
         <v>4</v>
       </c>
       <c r="G219" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H219" s="1">
         <v>3</v>
@@ -18202,7 +18254,7 @@
         <v>44950.033902222218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C220" s="1">
         <v>75</v>
@@ -18217,7 +18269,7 @@
         <v>5</v>
       </c>
       <c r="G220" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H220" s="1">
         <v>4</v>
@@ -18294,7 +18346,7 @@
         <v>44950.035665023148</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C221" s="1">
         <v>70</v>
@@ -18386,7 +18438,7 @@
         <v>44950.037715289349</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C222" s="1">
         <v>68</v>
@@ -18478,7 +18530,7 @@
         <v>44950.039114398147</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C223" s="1">
         <v>59</v>
@@ -18493,7 +18545,7 @@
         <v>3</v>
       </c>
       <c r="G223" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H223" s="1">
         <v>4</v>
@@ -18570,7 +18622,7 @@
         <v>44950.040550891208</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C224" s="1">
         <v>73</v>
@@ -18585,7 +18637,7 @@
         <v>5</v>
       </c>
       <c r="G224" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H224" s="1">
         <v>3</v>
@@ -18662,7 +18714,7 @@
         <v>44950.042149930552</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C225" s="1">
         <v>67</v>
@@ -18677,7 +18729,7 @@
         <v>4</v>
       </c>
       <c r="G225" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H225" s="1">
         <v>4</v>
@@ -18754,7 +18806,7 @@
         <v>44950.043987048615</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C226" s="1">
         <v>69</v>
@@ -18769,7 +18821,7 @@
         <v>4</v>
       </c>
       <c r="G226" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H226" s="1">
         <v>3</v>
@@ -18846,7 +18898,7 @@
         <v>44950.045688182872</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C227" s="1">
         <v>72</v>
@@ -18938,7 +18990,7 @@
         <v>44950.049150879626</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C228" s="1">
         <v>76</v>
@@ -18953,7 +19005,7 @@
         <v>3</v>
       </c>
       <c r="G228" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H228" s="1">
         <v>4</v>
@@ -19030,7 +19082,7 @@
         <v>44950.051334479169</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C229" s="1">
         <v>66</v>
@@ -19045,7 +19097,7 @@
         <v>3</v>
       </c>
       <c r="G229" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H229" s="1">
         <v>4</v>
@@ -19122,7 +19174,7 @@
         <v>44950.053455439818</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C230" s="1">
         <v>60</v>
@@ -19137,7 +19189,7 @@
         <v>4</v>
       </c>
       <c r="G230" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H230" s="1">
         <v>5</v>
@@ -19214,7 +19266,7 @@
         <v>44950.056810462964</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C231" s="1">
         <v>67</v>
@@ -19229,7 +19281,7 @@
         <v>5</v>
       </c>
       <c r="G231" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H231" s="1">
         <v>5</v>
@@ -19306,7 +19358,7 @@
         <v>44950.058912418986</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C232" s="1">
         <v>77</v>
@@ -19321,7 +19373,7 @@
         <v>5</v>
       </c>
       <c r="G232" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H232" s="1">
         <v>5</v>
@@ -19398,7 +19450,7 @@
         <v>44950.061805046294</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C233" s="1">
         <v>66</v>
@@ -19413,7 +19465,7 @@
         <v>4</v>
       </c>
       <c r="G233" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H233" s="1">
         <v>4</v>
@@ -19490,7 +19542,7 @@
         <v>44950.063502650461</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C234" s="1">
         <v>71</v>
@@ -19505,7 +19557,7 @@
         <v>4</v>
       </c>
       <c r="G234" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H234" s="1">
         <v>3</v>
@@ -19582,7 +19634,7 @@
         <v>44950.065170046291</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C235" s="1">
         <v>59</v>
@@ -19597,7 +19649,7 @@
         <v>5</v>
       </c>
       <c r="G235" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H235" s="1">
         <v>3</v>
@@ -19674,7 +19726,7 @@
         <v>44950.067308854166</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C236" s="1">
         <v>65</v>
@@ -19766,7 +19818,7 @@
         <v>44950.069437835649</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C237" s="1">
         <v>59</v>
@@ -19858,7 +19910,7 @@
         <v>44950.55027324074</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C238" s="1">
         <v>66</v>
@@ -19873,7 +19925,7 @@
         <v>3</v>
       </c>
       <c r="G238" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H238" s="1">
         <v>4</v>
@@ -19950,7 +20002,7 @@
         <v>44950.55226236111</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C239" s="1">
         <v>59</v>
@@ -19965,7 +20017,7 @@
         <v>5</v>
       </c>
       <c r="G239" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H239" s="1">
         <v>5</v>
@@ -20042,7 +20094,7 @@
         <v>44950.555686215273</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C240" s="1">
         <v>71</v>
@@ -20057,7 +20109,7 @@
         <v>4</v>
       </c>
       <c r="G240" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H240" s="1">
         <v>4</v>
@@ -20134,7 +20186,7 @@
         <v>44950.557151215282</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C241" s="1">
         <v>68</v>
@@ -20149,7 +20201,7 @@
         <v>5</v>
       </c>
       <c r="G241" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H241" s="1">
         <v>5</v>
@@ -20226,7 +20278,7 @@
         <v>44950.559345636575</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C242" s="1">
         <v>70</v>
@@ -20241,7 +20293,7 @@
         <v>5</v>
       </c>
       <c r="G242" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H242" s="1">
         <v>5</v>
@@ -20318,7 +20370,7 @@
         <v>44950.562710717597</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C243" s="1">
         <v>67</v>
@@ -20333,7 +20385,7 @@
         <v>4</v>
       </c>
       <c r="G243" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H243" s="1">
         <v>5</v>
@@ -20410,7 +20462,7 @@
         <v>44950.56477467592</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C244" s="1">
         <v>76</v>
@@ -20425,7 +20477,7 @@
         <v>5</v>
       </c>
       <c r="G244" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H244" s="1">
         <v>5</v>
@@ -20502,7 +20554,7 @@
         <v>44950.567575162037</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C245" s="1">
         <v>60</v>
@@ -20517,7 +20569,7 @@
         <v>5</v>
       </c>
       <c r="G245" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H245" s="1">
         <v>5</v>
@@ -20594,7 +20646,7 @@
         <v>44950.57050047454</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C246" s="1">
         <v>65</v>
@@ -20686,7 +20738,7 @@
         <v>44950.572886435184</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C247" s="1">
         <v>69</v>
@@ -20701,7 +20753,7 @@
         <v>5</v>
       </c>
       <c r="G247" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H247" s="1">
         <v>5</v>
@@ -20778,7 +20830,7 @@
         <v>44950.575575613431</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C248" s="1">
         <v>68</v>
@@ -20793,7 +20845,7 @@
         <v>5</v>
       </c>
       <c r="G248" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H248" s="1">
         <v>4</v>
@@ -20870,7 +20922,7 @@
         <v>44950.577459548615</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C249" s="1">
         <v>76</v>
@@ -20885,7 +20937,7 @@
         <v>4</v>
       </c>
       <c r="G249" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H249" s="1">
         <v>3</v>
@@ -20962,7 +21014,7 @@
         <v>44950.579855925927</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C250" s="1">
         <v>23</v>
@@ -20977,7 +21029,7 @@
         <v>5</v>
       </c>
       <c r="G250" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H250" s="1">
         <v>5</v>
@@ -21054,7 +21106,7 @@
         <v>44950.582282650459</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C251" s="1">
         <v>18</v>
@@ -21146,7 +21198,7 @@
         <v>44950.584968263887</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C252" s="1">
         <v>21</v>
@@ -21161,7 +21213,7 @@
         <v>5</v>
       </c>
       <c r="G252" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H252" s="1">
         <v>5</v>
@@ -21238,7 +21290,7 @@
         <v>44950.587682025463</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C253" s="1">
         <v>20</v>
@@ -21253,7 +21305,7 @@
         <v>5</v>
       </c>
       <c r="G253" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H253" s="1">
         <v>5</v>
@@ -21330,7 +21382,7 @@
         <v>44950.589490335653</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C254" s="1">
         <v>19</v>
@@ -21345,7 +21397,7 @@
         <v>4</v>
       </c>
       <c r="G254" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H254" s="1">
         <v>5</v>
@@ -21422,7 +21474,7 @@
         <v>44950.592479826388</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C255" s="1">
         <v>19</v>
@@ -21437,7 +21489,7 @@
         <v>4</v>
       </c>
       <c r="G255" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H255" s="1">
         <v>4</v>
@@ -21514,7 +21566,7 @@
         <v>44950.59417207176</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C256" s="1">
         <v>18</v>
@@ -21606,7 +21658,7 @@
         <v>44950.597433437499</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C257" s="1">
         <v>22</v>
@@ -21621,7 +21673,7 @@
         <v>4</v>
       </c>
       <c r="G257" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H257" s="1">
         <v>4</v>
@@ -21698,7 +21750,7 @@
         <v>44950.609331087966</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C258" s="1">
         <v>20</v>
@@ -21713,7 +21765,7 @@
         <v>5</v>
       </c>
       <c r="G258" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H258" s="1">
         <v>5</v>
@@ -21790,7 +21842,7 @@
         <v>44950.611466435184</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C259" s="1">
         <v>22</v>
@@ -21805,7 +21857,7 @@
         <v>4</v>
       </c>
       <c r="G259" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H259" s="1">
         <v>4</v>
@@ -21882,7 +21934,7 @@
         <v>44950.614065324073</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C260" s="1">
         <v>25</v>
